--- a/GATEWAY/A1#111MILLEWIN000/MILLENNIUM_SRL/MILLEWIN/20.0.45.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111MILLEWIN000/MILLENNIUM_SRL/MILLEWIN/20.0.45.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonietta.devito\OneDrive - Dedalus S.p.A\Desktop\ACCREDITAMENTO FSE 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D60F43-F97B-4C43-AD0E-457FE7743AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069B0C0F-95D0-42BE-B686-FB90AAAE9918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3997,15 +3997,6 @@
     <t>subject_application_version: 20.0.45.0</t>
   </si>
   <si>
-    <t>2024-01-10T16:21:34Z</t>
-  </si>
-  <si>
-    <t>c2694cf2a9a000ff</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.5338184c7a69fb67b90cbe8d335c9cf9c00696f26212b635a00bccf249e5e9bb.91613660a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.200.4.4.f65edfea3d3756d2ba9d12ebb5f620aaf58e99e97b3d29e61ff5e81b8ea662cf.300dd1aeb2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -4201,6 +4192,15 @@
   </si>
   <si>
     <t xml:space="preserve">Il software non consente la compilazione di un Patient Summary se non è specificato il comune di residenza del paziente </t>
+  </si>
+  <si>
+    <t>6018c65bef3ba7de</t>
+  </si>
+  <si>
+    <t>2024-01-12T12:41:53Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.5d77077ce2e885e35da0e3f5410c779174c1e8475007bfd2c99ae4f2868a879f.13f8a8c733^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -6129,10 +6129,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K184" sqref="K184"/>
+      <selection pane="bottomRight" activeCell="H390" sqref="H390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -7325,7 +7325,7 @@
         <v>834</v>
       </c>
       <c r="K37" s="33" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
@@ -7601,7 +7601,7 @@
         <v>834</v>
       </c>
       <c r="K45" s="33" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
@@ -7888,13 +7888,13 @@
         <v>125</v>
       </c>
       <c r="N53" s="25" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="O53" s="25" t="s">
         <v>834</v>
       </c>
       <c r="P53" s="33" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="Q53" s="25"/>
       <c r="R53" s="26"/>
@@ -7928,7 +7928,7 @@
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
       <c r="N54" s="25" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="O54" s="25"/>
       <c r="P54" s="25"/>
@@ -8038,7 +8038,7 @@
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
       <c r="N57" s="25" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="O57" s="25"/>
       <c r="P57" s="25"/>
@@ -12119,13 +12119,13 @@
         <v>45301</v>
       </c>
       <c r="G177" s="24" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="H177" s="24" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="I177" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="J177" s="25" t="s">
         <v>125</v>
@@ -12167,7 +12167,7 @@
         <v>834</v>
       </c>
       <c r="K178" s="25" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="L178" s="25"/>
       <c r="M178" s="25"/>
@@ -12201,13 +12201,13 @@
         <v>45302</v>
       </c>
       <c r="G179" s="24" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H179" s="24" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I179" s="24" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J179" s="25" t="s">
         <v>125</v>
@@ -12245,13 +12245,13 @@
         <v>45302</v>
       </c>
       <c r="G180" s="24" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="H180" s="24" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I180" s="24" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="J180" s="25" t="s">
         <v>125</v>
@@ -12293,7 +12293,7 @@
         <v>834</v>
       </c>
       <c r="K181" s="25" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="L181" s="25"/>
       <c r="M181" s="25"/>
@@ -12331,7 +12331,7 @@
         <v>834</v>
       </c>
       <c r="K182" s="25" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="L182" s="25"/>
       <c r="M182" s="25"/>
@@ -12369,7 +12369,7 @@
         <v>834</v>
       </c>
       <c r="K183" s="33" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="L183" s="25"/>
       <c r="M183" s="25"/>
@@ -12407,7 +12407,7 @@
         <v>834</v>
       </c>
       <c r="K184" s="25" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="L184" s="25"/>
       <c r="M184" s="25"/>
@@ -12445,7 +12445,7 @@
         <v>834</v>
       </c>
       <c r="K185" s="25" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="L185" s="25"/>
       <c r="M185" s="25"/>
@@ -12483,7 +12483,7 @@
         <v>834</v>
       </c>
       <c r="K186" s="25" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="L186" s="25"/>
       <c r="M186" s="25"/>
@@ -12521,7 +12521,7 @@
         <v>834</v>
       </c>
       <c r="K187" s="33" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="L187" s="25"/>
       <c r="M187" s="25"/>
@@ -12559,7 +12559,7 @@
         <v>834</v>
       </c>
       <c r="K188" s="33" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="L188" s="25"/>
       <c r="M188" s="25"/>
@@ -12597,7 +12597,7 @@
         <v>834</v>
       </c>
       <c r="K189" s="25" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="L189" s="25"/>
       <c r="M189" s="25"/>
@@ -12635,7 +12635,7 @@
         <v>834</v>
       </c>
       <c r="K190" s="25" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="L190" s="25"/>
       <c r="M190" s="25"/>
@@ -12673,7 +12673,7 @@
         <v>834</v>
       </c>
       <c r="K191" s="25" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="L191" s="25"/>
       <c r="M191" s="25"/>
@@ -12711,7 +12711,7 @@
         <v>834</v>
       </c>
       <c r="K192" s="25" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="L192" s="25"/>
       <c r="M192" s="25"/>
@@ -12749,7 +12749,7 @@
         <v>834</v>
       </c>
       <c r="K193" s="33" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="L193" s="25"/>
       <c r="M193" s="25"/>
@@ -12787,7 +12787,7 @@
         <v>834</v>
       </c>
       <c r="K194" s="25" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="L194" s="25"/>
       <c r="M194" s="25"/>
@@ -12825,7 +12825,7 @@
         <v>834</v>
       </c>
       <c r="K195" s="33" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="L195" s="25"/>
       <c r="M195" s="25"/>
@@ -12863,7 +12863,7 @@
         <v>834</v>
       </c>
       <c r="K196" s="33" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="L196" s="25"/>
       <c r="M196" s="25"/>
@@ -12901,7 +12901,7 @@
         <v>834</v>
       </c>
       <c r="K197" s="33" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="L197" s="25"/>
       <c r="M197" s="25"/>
@@ -19188,16 +19188,16 @@
         <v>778</v>
       </c>
       <c r="F382" s="23">
-        <v>45301</v>
+        <v>45303</v>
       </c>
       <c r="G382" s="24" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="H382" s="24" t="s">
-        <v>839</v>
+        <v>870</v>
       </c>
       <c r="I382" s="24" t="s">
-        <v>840</v>
+        <v>872</v>
       </c>
       <c r="J382" s="25" t="s">
         <v>125</v>

--- a/GATEWAY/A1#111MILLEWIN000/MILLENNIUM_SRL/MILLEWIN/20.0.45.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111MILLEWIN000/MILLENNIUM_SRL/MILLEWIN/20.0.45.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonietta.devito\OneDrive - Dedalus S.p.A\Desktop\ACCREDITAMENTO FSE 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069B0C0F-95D0-42BE-B686-FB90AAAE9918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF043231-8A54-4C2B-BF56-04378648F6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4188,9 +4188,6 @@
     <t>I campi relativi al token jwt non sono modificabili</t>
   </si>
   <si>
-    <t>Il software gestisce le section obbligatorie e tutte le relative entry obbligatorie ma non le entry opzionali</t>
-  </si>
-  <si>
     <t xml:space="preserve">Il software non consente la compilazione di un Patient Summary se non è specificato il comune di residenza del paziente </t>
   </si>
   <si>
@@ -4201,6 +4198,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.200.4.4.5d77077ce2e885e35da0e3f5410c779174c1e8475007bfd2c99ae4f2868a879f.13f8a8c733^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il software gestisce le section obbligatorie e le relative entry obbligatorie previste da IG ; non gestisce tutte le entry opzionali per IG ma obbligatorie per test case</t>
   </si>
 </sst>
 </file>
@@ -6129,10 +6129,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E197" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H390" sqref="H390"/>
+      <selection pane="bottomRight" activeCell="L178" sqref="L178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -12167,7 +12167,7 @@
         <v>834</v>
       </c>
       <c r="K178" s="25" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="L178" s="25"/>
       <c r="M178" s="25"/>
@@ -12407,7 +12407,7 @@
         <v>834</v>
       </c>
       <c r="K184" s="25" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L184" s="25"/>
       <c r="M184" s="25"/>
@@ -19191,13 +19191,13 @@
         <v>45303</v>
       </c>
       <c r="G382" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="H382" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="I382" s="24" t="s">
         <v>871</v>
-      </c>
-      <c r="H382" s="24" t="s">
-        <v>870</v>
-      </c>
-      <c r="I382" s="24" t="s">
-        <v>872</v>
       </c>
       <c r="J382" s="25" t="s">
         <v>125</v>
